--- a/sd-correction-scenario-inactivation-anomalie/ig/StructureDefinition-ror-act-type.xlsx
+++ b/sd-correction-scenario-inactivation-anomalie/ig/StructureDefinition-ror-act-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T13:45:55+00:00</t>
+    <t>2024-06-04T13:47:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
